--- a/results/Preliminaries-Germany.xlsx
+++ b/results/Preliminaries-Germany.xlsx
@@ -53,28 +53,28 @@
     <t>2017</t>
   </si>
   <si>
-    <t>CDU</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>FDP</t>
-  </si>
-  <si>
-    <t>G -</t>
-  </si>
-  <si>
-    <t>PDS</t>
-  </si>
-  <si>
-    <t>SPD</t>
-  </si>
-  <si>
-    <t>Lin</t>
-  </si>
-  <si>
-    <t>AfD</t>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)</t>
+  </si>
+  <si>
+    <t>FDP - Free Democrats  (Freie Demokratische Partei, FDP)</t>
+  </si>
+  <si>
+    <t>G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)</t>
   </si>
   <si>
     <t>Key</t>
@@ -107,457 +107,457 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t>CDU+CSU</t>
-  </si>
-  <si>
-    <t>CDU+FDP</t>
-  </si>
-  <si>
-    <t>CDU+G -</t>
-  </si>
-  <si>
-    <t>CDU+PDS</t>
-  </si>
-  <si>
-    <t>CDU+SPD</t>
-  </si>
-  <si>
-    <t>CSU+FDP</t>
-  </si>
-  <si>
-    <t>CSU+G -</t>
-  </si>
-  <si>
-    <t>CSU+PDS</t>
-  </si>
-  <si>
-    <t>CSU+SPD</t>
-  </si>
-  <si>
-    <t>FDP+G -</t>
-  </si>
-  <si>
-    <t>FDP+PDS</t>
-  </si>
-  <si>
-    <t>FDP+SPD</t>
-  </si>
-  <si>
-    <t>G -+PDS</t>
-  </si>
-  <si>
-    <t>G -+SPD</t>
-  </si>
-  <si>
-    <t>PDS+SPD</t>
-  </si>
-  <si>
-    <t>CDU+CSU+FDP</t>
-  </si>
-  <si>
-    <t>CDU+CSU+G -</t>
-  </si>
-  <si>
-    <t>CDU+CSU+PDS</t>
-  </si>
-  <si>
-    <t>CDU+CSU+SPD</t>
-  </si>
-  <si>
-    <t>CDU+FDP+G -</t>
-  </si>
-  <si>
-    <t>CDU+FDP+PDS</t>
-  </si>
-  <si>
-    <t>CDU+FDP+SPD</t>
-  </si>
-  <si>
-    <t>CDU+G -+PDS</t>
-  </si>
-  <si>
-    <t>CDU+G -+SPD</t>
-  </si>
-  <si>
-    <t>CDU+PDS+SPD</t>
-  </si>
-  <si>
-    <t>CSU+FDP+G -</t>
-  </si>
-  <si>
-    <t>CSU+FDP+PDS</t>
-  </si>
-  <si>
-    <t>CSU+FDP+SPD</t>
-  </si>
-  <si>
-    <t>CSU+G -+PDS</t>
-  </si>
-  <si>
-    <t>CSU+G -+SPD</t>
-  </si>
-  <si>
-    <t>CSU+PDS+SPD</t>
-  </si>
-  <si>
-    <t>FDP+G -+PDS</t>
-  </si>
-  <si>
-    <t>FDP+G -+SPD</t>
-  </si>
-  <si>
-    <t>FDP+PDS+SPD</t>
-  </si>
-  <si>
-    <t>G -+PDS+SPD</t>
-  </si>
-  <si>
-    <t>CDU+CSU+FDP+G -</t>
-  </si>
-  <si>
-    <t>CDU+CSU+FDP+PDS</t>
-  </si>
-  <si>
-    <t>CDU+CSU+FDP+SPD</t>
-  </si>
-  <si>
-    <t>CDU+CSU+G -+PDS</t>
-  </si>
-  <si>
-    <t>CDU+CSU+G -+SPD</t>
-  </si>
-  <si>
-    <t>CDU+CSU+PDS+SPD</t>
-  </si>
-  <si>
-    <t>CDU+FDP+G -+PDS</t>
-  </si>
-  <si>
-    <t>CDU+FDP+G -+SPD</t>
-  </si>
-  <si>
-    <t>CDU+FDP+PDS+SPD</t>
-  </si>
-  <si>
-    <t>CDU+G -+PDS+SPD</t>
-  </si>
-  <si>
-    <t>CSU+FDP+G -+PDS</t>
-  </si>
-  <si>
-    <t>CSU+FDP+G -+SPD</t>
-  </si>
-  <si>
-    <t>CSU+FDP+PDS+SPD</t>
-  </si>
-  <si>
-    <t>CSU+G -+PDS+SPD</t>
-  </si>
-  <si>
-    <t>FDP+G -+PDS+SPD</t>
-  </si>
-  <si>
-    <t>CDU+CSU+FDP+G -+PDS</t>
-  </si>
-  <si>
-    <t>CDU+CSU+FDP+G -+SPD</t>
-  </si>
-  <si>
-    <t>CDU+CSU+FDP+PDS+SPD</t>
-  </si>
-  <si>
-    <t>CDU+CSU+G -+PDS+SPD</t>
-  </si>
-  <si>
-    <t>CDU+FDP+G -+PDS+SPD</t>
-  </si>
-  <si>
-    <t>CSU+FDP+G -+PDS+SPD</t>
-  </si>
-  <si>
-    <t>CDU+CSU+FDP+G -+PDS+SPD</t>
-  </si>
-  <si>
-    <t>CDU+Lin</t>
-  </si>
-  <si>
-    <t>CSU+Lin</t>
-  </si>
-  <si>
-    <t>FDP+Lin</t>
-  </si>
-  <si>
-    <t>G -+Lin</t>
-  </si>
-  <si>
-    <t>Lin+SPD</t>
-  </si>
-  <si>
-    <t>CDU+CSU+Lin</t>
-  </si>
-  <si>
-    <t>CDU+FDP+Lin</t>
-  </si>
-  <si>
-    <t>CDU+G -+Lin</t>
-  </si>
-  <si>
-    <t>CDU+Lin+SPD</t>
-  </si>
-  <si>
-    <t>CSU+FDP+Lin</t>
-  </si>
-  <si>
-    <t>CSU+G -+Lin</t>
-  </si>
-  <si>
-    <t>CSU+Lin+SPD</t>
-  </si>
-  <si>
-    <t>FDP+G -+Lin</t>
-  </si>
-  <si>
-    <t>FDP+Lin+SPD</t>
-  </si>
-  <si>
-    <t>G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>CDU+CSU+FDP+Lin</t>
-  </si>
-  <si>
-    <t>CDU+CSU+G -+Lin</t>
-  </si>
-  <si>
-    <t>CDU+CSU+Lin+SPD</t>
-  </si>
-  <si>
-    <t>CDU+FDP+G -+Lin</t>
-  </si>
-  <si>
-    <t>CDU+FDP+Lin+SPD</t>
-  </si>
-  <si>
-    <t>CDU+G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>CSU+FDP+G -+Lin</t>
-  </si>
-  <si>
-    <t>CSU+FDP+Lin+SPD</t>
-  </si>
-  <si>
-    <t>CSU+G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>FDP+G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>CDU+CSU+FDP+G -+Lin</t>
-  </si>
-  <si>
-    <t>CDU+CSU+FDP+Lin+SPD</t>
-  </si>
-  <si>
-    <t>CDU+CSU+G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>CDU+FDP+G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>CSU+FDP+G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>CDU+CSU+FDP+G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU</t>
-  </si>
-  <si>
-    <t>AfD+CSU</t>
-  </si>
-  <si>
-    <t>AfD+FDP</t>
-  </si>
-  <si>
-    <t>AfD+G -</t>
-  </si>
-  <si>
-    <t>AfD+Lin</t>
-  </si>
-  <si>
-    <t>AfD+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU</t>
-  </si>
-  <si>
-    <t>AfD+CDU+FDP</t>
-  </si>
-  <si>
-    <t>AfD+CDU+G -</t>
-  </si>
-  <si>
-    <t>AfD+CDU+Lin</t>
-  </si>
-  <si>
-    <t>AfD+CDU+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CSU+FDP</t>
-  </si>
-  <si>
-    <t>AfD+CSU+G -</t>
-  </si>
-  <si>
-    <t>AfD+CSU+Lin</t>
-  </si>
-  <si>
-    <t>AfD+CSU+SPD</t>
-  </si>
-  <si>
-    <t>AfD+FDP+G -</t>
-  </si>
-  <si>
-    <t>AfD+FDP+Lin</t>
-  </si>
-  <si>
-    <t>AfD+FDP+SPD</t>
-  </si>
-  <si>
-    <t>AfD+G -+Lin</t>
-  </si>
-  <si>
-    <t>AfD+G -+SPD</t>
-  </si>
-  <si>
-    <t>AfD+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+FDP</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+G -</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+Lin</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+FDP+G -</t>
-  </si>
-  <si>
-    <t>AfD+CDU+FDP+Lin</t>
-  </si>
-  <si>
-    <t>AfD+CDU+FDP+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+G -+Lin</t>
-  </si>
-  <si>
-    <t>AfD+CDU+G -+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CSU+FDP+G -</t>
-  </si>
-  <si>
-    <t>AfD+CSU+FDP+Lin</t>
-  </si>
-  <si>
-    <t>AfD+CSU+FDP+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CSU+G -+Lin</t>
-  </si>
-  <si>
-    <t>AfD+CSU+G -+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CSU+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+FDP+G -+Lin</t>
-  </si>
-  <si>
-    <t>AfD+FDP+G -+SPD</t>
-  </si>
-  <si>
-    <t>AfD+FDP+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+FDP+G -</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+FDP+Lin</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+FDP+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+G -+Lin</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+G -+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+FDP+G -+Lin</t>
-  </si>
-  <si>
-    <t>AfD+CDU+FDP+G -+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+FDP+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CSU+FDP+G -+Lin</t>
-  </si>
-  <si>
-    <t>AfD+CSU+FDP+G -+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CSU+FDP+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CSU+G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+FDP+G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+FDP+G -+Lin</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+FDP+G -+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+FDP+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+FDP+G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CSU+FDP+G -+Lin+SPD</t>
-  </si>
-  <si>
-    <t>AfD+CDU+CSU+FDP+G -+Lin+SPD</t>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>FDP - Free Democrats  (Freie Demokratische Partei, FDP)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>FDP - Free Democrats  (Freie Demokratische Partei, FDP)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>FDP - Free Democrats  (Freie Demokratische Partei, FDP)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)+CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)+CSU - Christian Social Union  (Christlich Soziale Union, CSU)+FDP - Free Democrats  (Freie Demokratische Partei, FDP)+G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)+Linke - The Left (Die Linke, Linke)+SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
   </si>
 </sst>
 </file>
